--- a/finance/xinlitai.xlsx
+++ b/finance/xinlitai.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\stockProject\finance\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -202,12 +207,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -215,17 +220,50 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -252,25 +290,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -312,7 +374,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,9 +406,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,6 +441,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -553,14 +617,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="24.625" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +649,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -582,7 +661,7 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -594,7 +673,7 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -606,7 +685,7 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -618,7 +697,7 @@
       <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
@@ -630,7 +709,7 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Z1" s="1" t="s">
@@ -642,7 +721,7 @@
       <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="AD1" s="1" t="s">
@@ -654,7 +733,7 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="AH1" s="1" t="s">
@@ -666,7 +745,7 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AL1" s="1" t="s">
@@ -678,7 +757,7 @@
       <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AP1" s="1" t="s">
@@ -688,7 +767,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -699,70 +778,70 @@
         <v>15.3093</v>
       </c>
       <c r="D2">
-        <v>16.6107</v>
-      </c>
-      <c r="E2">
-        <v>12.6993</v>
+        <v>16.610700000000001</v>
+      </c>
+      <c r="E2" s="3">
+        <v>12.699299999999999</v>
       </c>
       <c r="F2">
-        <v>13.3319</v>
+        <v>13.331899999999999</v>
       </c>
       <c r="G2">
-        <v>14.0912</v>
+        <v>14.091200000000001</v>
       </c>
       <c r="H2">
         <v>15.1113</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>12.5481</v>
       </c>
       <c r="J2">
         <v>11.2768</v>
       </c>
       <c r="K2">
-        <v>12.8899</v>
+        <v>12.889900000000001</v>
       </c>
       <c r="L2">
-        <v>10.4578</v>
-      </c>
-      <c r="M2">
+        <v>10.457800000000001</v>
+      </c>
+      <c r="M2" s="3">
         <v>13.9536</v>
       </c>
       <c r="N2">
-        <v>12.047</v>
+        <v>12.047000000000001</v>
       </c>
       <c r="O2">
         <v>10.4985</v>
       </c>
       <c r="P2">
-        <v>17.8663</v>
-      </c>
-      <c r="Q2">
-        <v>17.9365</v>
+        <v>17.866299999999999</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>17.936499999999999</v>
       </c>
       <c r="R2">
-        <v>12.937</v>
+        <v>12.936999999999999</v>
       </c>
       <c r="S2">
-        <v>16.7051</v>
+        <v>16.705100000000002</v>
       </c>
       <c r="T2">
-        <v>13.0019</v>
-      </c>
-      <c r="U2">
-        <v>12.8321</v>
+        <v>13.001899999999999</v>
+      </c>
+      <c r="U2" s="3">
+        <v>12.832100000000001</v>
       </c>
       <c r="V2">
-        <v>12.1667</v>
+        <v>12.166700000000001</v>
       </c>
       <c r="W2">
-        <v>17.3077</v>
+        <v>17.307700000000001</v>
       </c>
       <c r="X2">
-        <v>17.7954</v>
-      </c>
-      <c r="Y2">
-        <v>16.4378</v>
+        <v>17.795400000000001</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>16.437799999999999</v>
       </c>
       <c r="Z2">
         <v>14.7744</v>
@@ -773,19 +852,19 @@
       <c r="AB2">
         <v>10.776</v>
       </c>
-      <c r="AC2">
-        <v>10.283</v>
+      <c r="AC2" s="3">
+        <v>10.282999999999999</v>
       </c>
       <c r="AD2">
-        <v>8.4008</v>
+        <v>8.4008000000000003</v>
       </c>
       <c r="AE2">
         <v>13.987</v>
       </c>
       <c r="AF2">
-        <v>8.2774</v>
-      </c>
-      <c r="AG2">
+        <v>8.2774000000000001</v>
+      </c>
+      <c r="AG2" s="3">
         <v>13.0756</v>
       </c>
       <c r="AH2">
@@ -795,31 +874,31 @@
         <v>14.214</v>
       </c>
       <c r="AJ2">
-        <v>13.1864</v>
-      </c>
-      <c r="AK2">
+        <v>13.186400000000001</v>
+      </c>
+      <c r="AK2" s="3">
         <v>13.7965</v>
       </c>
       <c r="AL2">
-        <v>16.7329</v>
+        <v>16.732900000000001</v>
       </c>
       <c r="AM2">
-        <v>17.7736</v>
+        <v>17.773599999999998</v>
       </c>
       <c r="AN2">
-        <v>20.1595</v>
-      </c>
-      <c r="AO2">
-        <v>19.1781</v>
+        <v>20.159500000000001</v>
+      </c>
+      <c r="AO2" s="3">
+        <v>19.178100000000001</v>
       </c>
       <c r="AP2">
-        <v>17.2797</v>
+        <v>17.279699999999998</v>
       </c>
       <c r="AQ2">
         <v>12.9123</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -832,11 +911,11 @@
       <c r="D3">
         <v>0.54</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>0.93</v>
       </c>
       <c r="F3">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -844,7 +923,7 @@
       <c r="H3">
         <v>0.39</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>0.97</v>
       </c>
       <c r="J3">
@@ -856,19 +935,19 @@
       <c r="L3">
         <v>0.6</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>1.27</v>
       </c>
       <c r="N3">
         <v>0.39</v>
       </c>
       <c r="O3">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="P3">
         <v>0.47</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>1</v>
       </c>
       <c r="R3">
@@ -880,7 +959,7 @@
       <c r="T3">
         <v>0.59</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="3">
         <v>1.21</v>
       </c>
       <c r="V3">
@@ -892,7 +971,7 @@
       <c r="X3">
         <v>0.66</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="3">
         <v>1.33</v>
       </c>
       <c r="Z3">
@@ -904,35 +983,35 @@
       <c r="AB3">
         <v>0.7</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="3">
         <v>1.39</v>
       </c>
       <c r="AD3">
         <v>0.4</v>
       </c>
       <c r="AE3">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AF3">
         <v>0.75</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="3">
         <v>1.39</v>
       </c>
       <c r="AH3">
         <v>0.31</v>
       </c>
       <c r="AI3">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="AJ3">
         <v>0.6</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="3">
         <v>0.68</v>
       </c>
       <c r="AL3">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AM3">
         <v>0.26</v>
@@ -940,7 +1019,7 @@
       <c r="AN3">
         <v>0.19</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" s="3">
         <v>0.06</v>
       </c>
       <c r="AP3">
@@ -950,12 +1029,12 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B4">
-        <v>4.4095</v>
+        <v>4.4095000000000004</v>
       </c>
       <c r="C4">
         <v>2.3809</v>
@@ -963,47 +1042,47 @@
       <c r="D4">
         <v>2.3809</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>2.3809</v>
       </c>
       <c r="F4">
         <v>2.3809</v>
       </c>
       <c r="G4">
-        <v>1.8175</v>
+        <v>1.8174999999999999</v>
       </c>
       <c r="H4">
-        <v>1.8175</v>
-      </c>
-      <c r="I4">
-        <v>1.8175</v>
+        <v>1.8174999999999999</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1.8174999999999999</v>
       </c>
       <c r="J4">
-        <v>1.8175</v>
+        <v>1.8174999999999999</v>
       </c>
       <c r="K4">
-        <v>0.8783000000000001</v>
+        <v>0.87830000000000008</v>
       </c>
       <c r="L4">
-        <v>0.8783000000000001</v>
-      </c>
-      <c r="M4">
-        <v>0.8783000000000001</v>
+        <v>0.87830000000000008</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.87830000000000008</v>
       </c>
       <c r="N4">
-        <v>0.8783000000000001</v>
+        <v>0.87830000000000008</v>
       </c>
       <c r="O4">
-        <v>0.8783000000000001</v>
+        <v>0.87830000000000008</v>
       </c>
       <c r="P4">
-        <v>0.8783000000000001</v>
-      </c>
-      <c r="Q4">
-        <v>0.8783000000000001</v>
+        <v>0.87830000000000008</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.87830000000000008</v>
       </c>
       <c r="R4">
-        <v>0.8783000000000001</v>
+        <v>0.87830000000000008</v>
       </c>
       <c r="S4">
         <v>0.1739</v>
@@ -1011,7 +1090,7 @@
       <c r="T4">
         <v>0.1739</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="3">
         <v>0.1739</v>
       </c>
       <c r="V4">
@@ -1023,19 +1102,19 @@
       <c r="X4">
         <v>0.1739</v>
       </c>
-      <c r="Y4">
-        <v>0.1739000000000001</v>
+      <c r="Y4" s="3">
+        <v>0.17390000000000011</v>
       </c>
       <c r="Z4">
-        <v>0.1739000000000001</v>
+        <v>0.17390000000000011</v>
       </c>
       <c r="AA4">
-        <v>0.1739000000000001</v>
+        <v>0.17390000000000011</v>
       </c>
       <c r="AB4">
-        <v>0.1739000000000001</v>
-      </c>
-      <c r="AC4">
+        <v>0.17390000000000011</v>
+      </c>
+      <c r="AC4" s="3">
         <v>0.154</v>
       </c>
       <c r="AD4">
@@ -1047,23 +1126,23 @@
       <c r="AF4">
         <v>0.154</v>
       </c>
-      <c r="AG4">
-        <v>0.138</v>
+      <c r="AG4" s="3">
+        <v>0.13800000000000001</v>
       </c>
       <c r="AH4">
-        <v>0.138</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="AI4">
-        <v>0.138</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="AJ4">
-        <v>0.138</v>
-      </c>
-      <c r="AK4">
-        <v>0.138</v>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>0.13800000000000001</v>
       </c>
       <c r="AL4">
-        <v>0.138</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -1071,7 +1150,7 @@
       <c r="AN4">
         <v>0</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" s="3">
         <v>0</v>
       </c>
       <c r="AP4">
@@ -1081,7 +1160,7 @@
         <v>1.7255</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -1094,11 +1173,11 @@
       <c r="D5">
         <v>0.54</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>0.93</v>
       </c>
       <c r="F5">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1106,7 +1185,7 @@
       <c r="H5">
         <v>0.39</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>0.97</v>
       </c>
       <c r="J5">
@@ -1118,19 +1197,19 @@
       <c r="L5">
         <v>0.6</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>1.27</v>
       </c>
       <c r="N5">
         <v>0.39</v>
       </c>
       <c r="O5">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="P5">
         <v>0.47</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="3">
         <v>1</v>
       </c>
       <c r="R5">
@@ -1142,7 +1221,7 @@
       <c r="T5">
         <v>0.59</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="3">
         <v>1.21</v>
       </c>
       <c r="V5">
@@ -1154,7 +1233,7 @@
       <c r="X5">
         <v>0.66</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="3">
         <v>1.33</v>
       </c>
       <c r="Z5">
@@ -1166,35 +1245,35 @@
       <c r="AB5">
         <v>0.7</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="3">
         <v>1.39</v>
       </c>
       <c r="AD5">
         <v>0.4</v>
       </c>
       <c r="AE5">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AF5">
         <v>0.75</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="3">
         <v>1.39</v>
       </c>
       <c r="AH5">
         <v>0.31</v>
       </c>
       <c r="AI5">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="AJ5">
         <v>0.6</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" s="3">
         <v>0.68</v>
       </c>
       <c r="AL5">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AM5">
         <v>0.26</v>
@@ -1202,7 +1281,7 @@
       <c r="AN5">
         <v>0.19</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" s="3">
         <v>0.06</v>
       </c>
       <c r="AP5">
@@ -1212,7 +1291,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -1220,109 +1299,109 @@
         <v>120.9364040896569</v>
       </c>
       <c r="C6">
-        <v>37.15761798068635</v>
+        <v>37.157617980686346</v>
       </c>
       <c r="D6">
-        <v>55.95176670099205</v>
-      </c>
-      <c r="E6">
+        <v>55.951766700992053</v>
+      </c>
+      <c r="E6" s="3">
         <v>19.87696387504122</v>
       </c>
       <c r="F6">
-        <v>71.6549774763474</v>
+        <v>71.654977476347398</v>
       </c>
       <c r="G6">
         <v>23.67533944589313</v>
       </c>
       <c r="H6">
-        <v>41.39446800173588</v>
-      </c>
-      <c r="I6">
-        <v>23.27024611617409</v>
+        <v>41.394468001735881</v>
+      </c>
+      <c r="I6" s="3">
+        <v>23.270246116174089</v>
       </c>
       <c r="J6">
-        <v>98.79208455456281</v>
+        <v>98.792084554562805</v>
       </c>
       <c r="K6">
         <v>33.05162213226118</v>
       </c>
       <c r="L6">
-        <v>41.80677074358454</v>
-      </c>
-      <c r="M6">
-        <v>23.80875218040767</v>
+        <v>41.806770743584543</v>
+      </c>
+      <c r="M6" s="3">
+        <v>23.808752180407669</v>
       </c>
       <c r="N6">
-        <v>66.18784271562417</v>
+        <v>66.187842715624171</v>
       </c>
       <c r="O6">
-        <v>23.99874767897658</v>
+        <v>23.998747678976581</v>
       </c>
       <c r="P6">
-        <v>34.94307999710934</v>
-      </c>
-      <c r="Q6">
-        <v>19.83024048542302</v>
+        <v>34.943079997109344</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>19.830240485423019</v>
       </c>
       <c r="R6">
-        <v>79.66341088422072</v>
+        <v>79.663410884220724</v>
       </c>
       <c r="S6">
-        <v>24.87860704862788</v>
+        <v>24.878607048627881</v>
       </c>
       <c r="T6">
-        <v>41.76557564453834</v>
-      </c>
-      <c r="U6">
-        <v>21.61522380633357</v>
+        <v>41.765575644538337</v>
+      </c>
+      <c r="U6" s="3">
+        <v>21.615223806333571</v>
       </c>
       <c r="V6">
-        <v>72.17846108526051</v>
+        <v>72.178461085260508</v>
       </c>
       <c r="W6">
         <v>24.48616539844064</v>
       </c>
       <c r="X6">
-        <v>35.74213908751359</v>
-      </c>
-      <c r="Y6">
+        <v>35.742139087513593</v>
+      </c>
+      <c r="Y6" s="3">
         <v>19.1087565710916</v>
       </c>
       <c r="Z6">
-        <v>68.6855834440088</v>
+        <v>68.685583444008799</v>
       </c>
       <c r="AA6">
         <v>25.60040981017724</v>
       </c>
       <c r="AB6">
-        <v>44.59253537388332</v>
-      </c>
-      <c r="AC6">
-        <v>28.11382242907476</v>
+        <v>44.592535373883322</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>28.113822429074759</v>
       </c>
       <c r="AD6">
-        <v>92.57416388628658</v>
+        <v>92.574163886286584</v>
       </c>
       <c r="AE6">
         <v>22.58328982147642</v>
       </c>
       <c r="AF6">
-        <v>42.35087623638732</v>
-      </c>
-      <c r="AG6">
+        <v>42.350876236387322</v>
+      </c>
+      <c r="AG6" s="3">
         <v>13.21011372608721</v>
       </c>
       <c r="AH6">
         <v>74.89557168723772</v>
       </c>
       <c r="AI6">
-        <v>23.82471053694317</v>
+        <v>23.824710536943169</v>
       </c>
       <c r="AJ6">
-        <v>32.24427733654319</v>
-      </c>
-      <c r="AK6">
-        <v>25.47610223233669</v>
+        <v>32.244277336543192</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>25.476102232336689</v>
       </c>
       <c r="AL6">
         <v>111.500237703076</v>
@@ -1333,17 +1412,17 @@
       <c r="AN6">
         <v>145.3715149398349</v>
       </c>
-      <c r="AO6">
-        <v>792.4213756018933</v>
+      <c r="AO6" s="3">
+        <v>792.42137560189326</v>
       </c>
       <c r="AP6">
-        <v>212.1715997160688</v>
+        <v>212.17159971606881</v>
       </c>
       <c r="AQ6">
         <v>133.6286986578603</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -1351,64 +1430,64 @@
         <v>120.9364040896569</v>
       </c>
       <c r="C7">
-        <v>37.15761798068635</v>
+        <v>37.157617980686346</v>
       </c>
       <c r="D7">
-        <v>52.73216493047732</v>
-      </c>
-      <c r="E7">
-        <v>18.52582811983359</v>
+        <v>52.732164930477317</v>
+      </c>
+      <c r="E7" s="3">
+        <v>18.525828119833591</v>
       </c>
       <c r="F7">
-        <v>71.6549774763474</v>
+        <v>71.654977476347398</v>
       </c>
       <c r="G7">
         <v>23.67533944589313</v>
       </c>
       <c r="H7">
-        <v>38.65005994592266</v>
-      </c>
-      <c r="I7">
-        <v>21.96449843640048</v>
+        <v>38.650059945922663</v>
+      </c>
+      <c r="I7" s="3">
+        <v>21.964498436400479</v>
       </c>
       <c r="J7">
-        <v>98.79208455456281</v>
+        <v>98.792084554562805</v>
       </c>
       <c r="K7">
         <v>33.05162213226118</v>
       </c>
       <c r="L7">
-        <v>39.43835165688372</v>
-      </c>
-      <c r="M7">
-        <v>22.49322199015591</v>
+        <v>39.438351656883718</v>
+      </c>
+      <c r="M7" s="3">
+        <v>22.493221990155909</v>
       </c>
       <c r="N7">
-        <v>66.18784271562417</v>
+        <v>66.187842715624171</v>
       </c>
       <c r="O7">
-        <v>23.99874767897658</v>
+        <v>23.998747678976581</v>
       </c>
       <c r="P7">
-        <v>33.20325875045257</v>
-      </c>
-      <c r="Q7">
+        <v>33.203258750452569</v>
+      </c>
+      <c r="Q7" s="3">
         <v>18.79030713139672</v>
       </c>
       <c r="R7">
-        <v>79.66341088422072</v>
+        <v>79.663410884220724</v>
       </c>
       <c r="S7">
-        <v>24.87860704862788</v>
+        <v>24.878607048627881</v>
       </c>
       <c r="T7">
-        <v>39.63671578979819</v>
-      </c>
-      <c r="U7">
+        <v>39.636715789798188</v>
+      </c>
+      <c r="U7" s="3">
         <v>20.47361808299793</v>
       </c>
       <c r="V7">
-        <v>72.17846108526051</v>
+        <v>72.178461085260508</v>
       </c>
       <c r="W7">
         <v>24.48616539844064</v>
@@ -1416,23 +1495,23 @@
       <c r="X7">
         <v>33.78429248957984</v>
       </c>
-      <c r="Y7">
-        <v>17.77217167546845</v>
+      <c r="Y7" s="3">
+        <v>17.772171675468449</v>
       </c>
       <c r="Z7">
-        <v>68.6855834440088</v>
+        <v>68.685583444008799</v>
       </c>
       <c r="AA7">
         <v>25.60040981017724</v>
       </c>
       <c r="AB7">
-        <v>41.26119549728663</v>
-      </c>
-      <c r="AC7">
-        <v>26.00366944228117</v>
+        <v>41.261195497286629</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>26.003669442281169</v>
       </c>
       <c r="AD7">
-        <v>92.57416388628658</v>
+        <v>92.574163886286584</v>
       </c>
       <c r="AE7">
         <v>22.58328982147642</v>
@@ -1440,19 +1519,19 @@
       <c r="AF7">
         <v>38.54632902289044</v>
       </c>
-      <c r="AG7">
-        <v>11.93987286813216</v>
+      <c r="AG7" s="3">
+        <v>11.939872868132159</v>
       </c>
       <c r="AH7">
         <v>74.89557168723772</v>
       </c>
       <c r="AI7">
-        <v>23.82471053694317</v>
+        <v>23.824710536943169</v>
       </c>
       <c r="AJ7">
-        <v>27.98019151622509</v>
-      </c>
-      <c r="AK7">
+        <v>27.980191516225091</v>
+      </c>
+      <c r="AK7" s="3">
         <v>19.75336409382377</v>
       </c>
       <c r="AL7">
@@ -1462,150 +1541,150 @@
         <v>122.0789493699116</v>
       </c>
       <c r="AN7">
-        <v>91.70781197568169</v>
-      </c>
-      <c r="AO7">
-        <v>101.5826154692896</v>
+        <v>91.707811975681693</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>101.58261546928961</v>
       </c>
       <c r="AP7">
-        <v>212.1715997160688</v>
+        <v>212.17159971606881</v>
       </c>
       <c r="AQ7">
-        <v>87.74929845129756</v>
+        <v>87.749298451297562</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B8">
-        <v>57.8835</v>
-      </c>
-      <c r="C8">
-        <v>60.2835</v>
-      </c>
-      <c r="D8">
-        <v>59.0446</v>
-      </c>
-      <c r="E8">
-        <v>62.0403</v>
-      </c>
-      <c r="F8">
-        <v>67.0478</v>
-      </c>
-      <c r="G8">
-        <v>70.8505</v>
-      </c>
-      <c r="H8">
-        <v>68.1769</v>
-      </c>
-      <c r="I8">
-        <v>74.55159999999999</v>
-      </c>
-      <c r="J8">
-        <v>77.7914</v>
-      </c>
-      <c r="K8">
+      <c r="B8" s="5">
+        <v>57.883499999999998</v>
+      </c>
+      <c r="C8" s="5">
+        <v>60.283499999999997</v>
+      </c>
+      <c r="D8" s="5">
+        <v>59.044600000000003</v>
+      </c>
+      <c r="E8" s="5">
+        <v>62.040300000000002</v>
+      </c>
+      <c r="F8" s="5">
+        <v>67.047799999999995</v>
+      </c>
+      <c r="G8" s="5">
+        <v>70.850499999999997</v>
+      </c>
+      <c r="H8" s="5">
+        <v>68.176900000000003</v>
+      </c>
+      <c r="I8" s="5">
+        <v>74.551599999999993</v>
+      </c>
+      <c r="J8" s="5">
+        <v>77.791399999999996</v>
+      </c>
+      <c r="K8" s="5">
         <v>78.42</v>
       </c>
-      <c r="L8">
-        <v>78.2749</v>
-      </c>
-      <c r="M8">
-        <v>75.74120000000001</v>
-      </c>
-      <c r="N8">
-        <v>77.6071</v>
-      </c>
-      <c r="O8">
-        <v>76.6953</v>
-      </c>
-      <c r="P8">
-        <v>76.6122</v>
-      </c>
-      <c r="Q8">
-        <v>73.4669</v>
-      </c>
-      <c r="R8">
-        <v>77.49120000000001</v>
-      </c>
-      <c r="S8">
-        <v>73.8771</v>
-      </c>
-      <c r="T8">
-        <v>74.30670000000001</v>
-      </c>
-      <c r="U8">
-        <v>73.76739999999999</v>
-      </c>
-      <c r="V8">
-        <v>76.3763</v>
-      </c>
-      <c r="W8">
-        <v>74.3466</v>
-      </c>
-      <c r="X8">
-        <v>74.5021</v>
-      </c>
-      <c r="Y8">
-        <v>75.2216</v>
-      </c>
-      <c r="Z8">
-        <v>79.431</v>
-      </c>
-      <c r="AA8">
-        <v>80.51049999999999</v>
-      </c>
-      <c r="AB8">
-        <v>79.40649999999999</v>
-      </c>
-      <c r="AC8">
-        <v>81.1002</v>
-      </c>
-      <c r="AD8">
-        <v>81.245</v>
-      </c>
-      <c r="AE8">
-        <v>80.71639999999999</v>
-      </c>
-      <c r="AF8">
+      <c r="L8" s="5">
+        <v>78.274900000000002</v>
+      </c>
+      <c r="M8" s="5">
+        <v>75.741200000000006</v>
+      </c>
+      <c r="N8" s="5">
+        <v>77.607100000000003</v>
+      </c>
+      <c r="O8" s="5">
+        <v>76.695300000000003</v>
+      </c>
+      <c r="P8" s="5">
+        <v>76.612200000000001</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>73.466899999999995</v>
+      </c>
+      <c r="R8" s="5">
+        <v>77.491200000000006</v>
+      </c>
+      <c r="S8" s="5">
+        <v>73.877099999999999</v>
+      </c>
+      <c r="T8" s="5">
+        <v>74.306700000000006</v>
+      </c>
+      <c r="U8" s="5">
+        <v>73.767399999999995</v>
+      </c>
+      <c r="V8" s="5">
+        <v>76.376300000000001</v>
+      </c>
+      <c r="W8" s="5">
+        <v>74.346599999999995</v>
+      </c>
+      <c r="X8" s="5">
+        <v>74.502099999999999</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>75.221599999999995</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>79.430999999999997</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>80.510499999999993</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>79.406499999999994</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>81.100200000000001</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>81.245000000000005</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>80.716399999999993</v>
+      </c>
+      <c r="AF8" s="5">
         <v>80.2744</v>
       </c>
-      <c r="AG8">
-        <v>79.7141</v>
-      </c>
-      <c r="AH8">
-        <v>79.5151</v>
-      </c>
-      <c r="AI8">
+      <c r="AG8" s="3">
+        <v>79.714100000000002</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>79.515100000000004</v>
+      </c>
+      <c r="AI8" s="5">
         <v>79.0428</v>
       </c>
-      <c r="AJ8">
-        <v>79.4659</v>
-      </c>
-      <c r="AK8">
-        <v>78.4281</v>
-      </c>
-      <c r="AL8">
-        <v>74.227</v>
-      </c>
-      <c r="AM8">
-        <v>69.3334</v>
-      </c>
-      <c r="AN8">
-        <v>67.6467</v>
-      </c>
-      <c r="AO8">
-        <v>69.0459</v>
-      </c>
-      <c r="AP8">
+      <c r="AJ8" s="5">
+        <v>79.465900000000005</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>78.428100000000001</v>
+      </c>
+      <c r="AL8" s="5">
+        <v>74.227000000000004</v>
+      </c>
+      <c r="AM8" s="5">
+        <v>69.333399999999997</v>
+      </c>
+      <c r="AN8" s="5">
+        <v>67.646699999999996</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>69.045900000000003</v>
+      </c>
+      <c r="AP8" s="5">
         <v>71.9392</v>
       </c>
-      <c r="AQ8">
-        <v>73.0583</v>
+      <c r="AQ8" s="5">
+        <v>73.058300000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -1618,125 +1697,125 @@
       <c r="D9">
         <v>5.29</v>
       </c>
-      <c r="E9">
-        <v>5.8709</v>
+      <c r="E9" s="3">
+        <v>5.8708999999999998</v>
       </c>
       <c r="F9">
-        <v>6.2178</v>
+        <v>6.2178000000000004</v>
       </c>
       <c r="G9">
         <v>5.87</v>
       </c>
       <c r="H9">
-        <v>5.0957</v>
-      </c>
-      <c r="I9">
-        <v>5.9746</v>
+        <v>5.0956999999999999</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5.9745999999999997</v>
       </c>
       <c r="J9">
-        <v>6.438</v>
+        <v>6.4379999999999997</v>
       </c>
       <c r="K9">
-        <v>4.4229</v>
+        <v>4.4229000000000003</v>
       </c>
       <c r="L9">
-        <v>4.1173</v>
-      </c>
-      <c r="M9">
-        <v>4.7867</v>
+        <v>4.1173000000000002</v>
+      </c>
+      <c r="M9" s="3">
+        <v>4.7866999999999997</v>
       </c>
       <c r="N9">
-        <v>5.1754</v>
+        <v>5.1753999999999998</v>
       </c>
       <c r="O9">
-        <v>5.336</v>
+        <v>5.3360000000000003</v>
       </c>
       <c r="P9">
-        <v>4.9442</v>
-      </c>
-      <c r="Q9">
-        <v>5.7812</v>
+        <v>4.9442000000000004</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>5.7812000000000001</v>
       </c>
       <c r="R9">
-        <v>6.2625</v>
+        <v>6.2625000000000002</v>
       </c>
       <c r="S9">
-        <v>4.063</v>
+        <v>4.0629999999999997</v>
       </c>
       <c r="T9">
         <v>3.7683</v>
       </c>
-      <c r="U9">
-        <v>4.3876</v>
+      <c r="U9" s="3">
+        <v>4.3875999999999999</v>
       </c>
       <c r="V9">
-        <v>4.729</v>
+        <v>4.7290000000000001</v>
       </c>
       <c r="W9">
-        <v>4.7813</v>
+        <v>4.7812999999999999</v>
       </c>
       <c r="X9">
-        <v>4.4513</v>
-      </c>
-      <c r="Y9">
-        <v>5.1245</v>
+        <v>4.4512999999999998</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>5.1245000000000003</v>
       </c>
       <c r="Z9">
-        <v>5.4837</v>
+        <v>5.4836999999999998</v>
       </c>
       <c r="AA9">
-        <v>5.4651</v>
+        <v>5.4650999999999996</v>
       </c>
       <c r="AB9">
-        <v>5.1194</v>
-      </c>
-      <c r="AC9">
-        <v>5.7867</v>
+        <v>5.1193999999999997</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>5.7866999999999997</v>
       </c>
       <c r="AD9">
-        <v>6.1806</v>
+        <v>6.1806000000000001</v>
       </c>
       <c r="AE9">
-        <v>6.0902</v>
+        <v>6.0902000000000003</v>
       </c>
       <c r="AF9">
         <v>5.7401</v>
       </c>
-      <c r="AG9">
-        <v>6.3679</v>
+      <c r="AG9" s="3">
+        <v>6.3678999999999997</v>
       </c>
       <c r="AH9">
         <v>6.6753</v>
       </c>
       <c r="AI9">
-        <v>6.2564</v>
+        <v>6.2564000000000002</v>
       </c>
       <c r="AJ9">
         <v>6.173</v>
       </c>
-      <c r="AK9">
-        <v>6.204</v>
+      <c r="AK9" s="3">
+        <v>6.2039999999999997</v>
       </c>
       <c r="AL9">
-        <v>6.2207</v>
+        <v>6.2206999999999999</v>
       </c>
       <c r="AM9">
-        <v>5.534</v>
+        <v>5.5339999999999998</v>
       </c>
       <c r="AN9">
-        <v>5.4819</v>
-      </c>
-      <c r="AO9">
+        <v>5.4819000000000004</v>
+      </c>
+      <c r="AO9" s="3">
         <v>5.266</v>
       </c>
       <c r="AP9">
-        <v>5.4172</v>
+        <v>5.4172000000000002</v>
       </c>
       <c r="AQ9">
-        <v>7.2357</v>
+        <v>7.2356999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -1744,135 +1823,135 @@
         <v>105747978.58</v>
       </c>
       <c r="C10">
-        <v>286414878.86</v>
+        <v>286414878.86000001</v>
       </c>
       <c r="D10">
-        <v>195863170.3</v>
-      </c>
-      <c r="E10">
-        <v>405448454.18</v>
+        <v>195863170.30000001</v>
+      </c>
+      <c r="E10" s="3">
+        <v>405448454.18000001</v>
       </c>
       <c r="F10">
         <v>126046145.47</v>
       </c>
       <c r="G10">
-        <v>435234009.68</v>
+        <v>435234009.68000001</v>
       </c>
       <c r="H10">
         <v>252152273.63</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>635552046.13</v>
       </c>
       <c r="J10">
-        <v>202127407.11</v>
+        <v>202127407.11000001</v>
       </c>
       <c r="K10">
-        <v>594120297.21</v>
+        <v>594120297.21000004</v>
       </c>
       <c r="L10">
         <v>393510671.25</v>
       </c>
-      <c r="M10">
-        <v>833260446.61</v>
+      <c r="M10" s="3">
+        <v>833260446.61000001</v>
       </c>
       <c r="N10">
         <v>255886392.16</v>
       </c>
       <c r="O10">
-        <v>752047718.02</v>
+        <v>752047718.01999998</v>
       </c>
       <c r="P10">
         <v>498684966.81</v>
       </c>
-      <c r="Q10">
-        <v>1043384205.57</v>
+      <c r="Q10" s="3">
+        <v>1043384205.5700001</v>
       </c>
       <c r="R10">
-        <v>314258293.36</v>
+        <v>314258293.36000001</v>
       </c>
       <c r="S10">
-        <v>927614179.11</v>
+        <v>927614179.11000001</v>
       </c>
       <c r="T10">
-        <v>620413164.2</v>
-      </c>
-      <c r="U10">
-        <v>1269673698.37</v>
+        <v>620413164.20000005</v>
+      </c>
+      <c r="U10" s="3">
+        <v>1269673698.3699999</v>
       </c>
       <c r="V10">
-        <v>357610355.9</v>
+        <v>357610355.89999998</v>
       </c>
       <c r="W10">
         <v>1036074078.91</v>
       </c>
       <c r="X10">
-        <v>692515813.76</v>
-      </c>
-      <c r="Y10">
-        <v>1390038763.16</v>
+        <v>692515813.75999999</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>1390038763.1600001</v>
       </c>
       <c r="Z10">
-        <v>372676503.42</v>
+        <v>372676503.42000002</v>
       </c>
       <c r="AA10">
-        <v>1083657731.09</v>
+        <v>1083657731.0899999</v>
       </c>
       <c r="AB10">
-        <v>723408631.79</v>
-      </c>
-      <c r="AC10">
-        <v>1436880452.41</v>
+        <v>723408631.78999996</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>1436880452.4100001</v>
       </c>
       <c r="AD10">
-        <v>411458943.15</v>
+        <v>411458943.14999998</v>
       </c>
       <c r="AE10">
         <v>1147322860.79</v>
       </c>
       <c r="AF10">
-        <v>788130868.66</v>
-      </c>
-      <c r="AG10">
-        <v>1454580867.65</v>
+        <v>788130868.65999997</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>1454580867.6500001</v>
       </c>
       <c r="AH10">
-        <v>320016064.16</v>
+        <v>320016064.16000003</v>
       </c>
       <c r="AI10">
         <v>690515578.38</v>
       </c>
       <c r="AJ10">
-        <v>630216138.6</v>
-      </c>
-      <c r="AK10">
-        <v>681840757.3</v>
+        <v>630216138.60000002</v>
+      </c>
+      <c r="AK10" s="3">
+        <v>681840757.29999995</v>
       </c>
       <c r="AL10">
-        <v>149219890.01</v>
+        <v>149219890.00999999</v>
       </c>
       <c r="AM10">
-        <v>261357570.93</v>
+        <v>261357570.93000001</v>
       </c>
       <c r="AN10">
-        <v>192413639.6</v>
-      </c>
-      <c r="AO10">
-        <v>50134857.16</v>
+        <v>192413639.59999999</v>
+      </c>
+      <c r="AO10" s="3">
+        <v>50134857.159999996</v>
       </c>
       <c r="AP10">
-        <v>151749020.3</v>
+        <v>151749020.30000001</v>
       </c>
       <c r="AQ10">
         <v>231765695.72</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B11">
-        <v>29.1682</v>
+        <v>29.168199999999999</v>
       </c>
       <c r="C11">
         <v>26.5901</v>
@@ -1880,103 +1959,103 @@
       <c r="D11">
         <v>27.2624</v>
       </c>
-      <c r="E11">
-        <v>27.4902</v>
+      <c r="E11" s="3">
+        <v>27.490200000000002</v>
       </c>
       <c r="F11">
-        <v>30.3762</v>
+        <v>30.376200000000001</v>
       </c>
       <c r="G11">
-        <v>32.3463</v>
+        <v>32.346299999999999</v>
       </c>
       <c r="H11">
-        <v>29.6969</v>
-      </c>
-      <c r="I11">
-        <v>34.7509</v>
+        <v>29.696899999999999</v>
+      </c>
+      <c r="I11" s="3">
+        <v>34.750900000000001</v>
       </c>
       <c r="J11">
-        <v>38.2886</v>
+        <v>38.288600000000002</v>
       </c>
       <c r="K11">
-        <v>36.5759</v>
+        <v>36.575899999999997</v>
       </c>
       <c r="L11">
-        <v>37.0688</v>
-      </c>
-      <c r="M11">
-        <v>35.8009</v>
+        <v>37.068800000000003</v>
+      </c>
+      <c r="M11" s="3">
+        <v>35.800899999999999</v>
       </c>
       <c r="N11">
-        <v>39.3117</v>
+        <v>39.311700000000002</v>
       </c>
       <c r="O11">
-        <v>37.9239</v>
+        <v>37.923900000000003</v>
       </c>
       <c r="P11">
         <v>38.2498</v>
       </c>
-      <c r="Q11">
-        <v>36.1954</v>
+      <c r="Q11" s="3">
+        <v>36.195399999999999</v>
       </c>
       <c r="R11">
-        <v>40.1336</v>
+        <v>40.133600000000001</v>
       </c>
       <c r="S11">
-        <v>36.1268</v>
+        <v>36.126800000000003</v>
       </c>
       <c r="T11">
-        <v>37.4197</v>
-      </c>
-      <c r="U11">
-        <v>36.5091</v>
+        <v>37.419699999999999</v>
+      </c>
+      <c r="U11" s="3">
+        <v>36.509099999999997</v>
       </c>
       <c r="V11">
-        <v>39.0765</v>
+        <v>39.076500000000003</v>
       </c>
       <c r="W11">
-        <v>36.6196</v>
+        <v>36.619599999999998</v>
       </c>
       <c r="X11">
-        <v>36.6067</v>
-      </c>
-      <c r="Y11">
-        <v>36.2604</v>
+        <v>36.606699999999996</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>36.260399999999997</v>
       </c>
       <c r="Z11">
-        <v>38.3331</v>
+        <v>38.333100000000002</v>
       </c>
       <c r="AA11">
-        <v>34.9334</v>
+        <v>34.933399999999999</v>
       </c>
       <c r="AB11">
-        <v>35.554</v>
-      </c>
-      <c r="AC11">
-        <v>34.5921</v>
+        <v>35.554000000000002</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>34.592100000000002</v>
       </c>
       <c r="AD11">
         <v>36.5291</v>
       </c>
       <c r="AE11">
-        <v>32.4551</v>
+        <v>32.455100000000002</v>
       </c>
       <c r="AF11">
-        <v>34.7638</v>
-      </c>
-      <c r="AG11">
-        <v>31.2687</v>
+        <v>34.763800000000003</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>31.268699999999999</v>
       </c>
       <c r="AH11">
-        <v>26.9259</v>
+        <v>26.925899999999999</v>
       </c>
       <c r="AI11">
-        <v>19.3738</v>
+        <v>19.373799999999999</v>
       </c>
       <c r="AJ11">
-        <v>26.7492</v>
-      </c>
-      <c r="AK11">
+        <v>26.749199999999998</v>
+      </c>
+      <c r="AK11" s="3">
         <v>15.2521</v>
       </c>
       <c r="AL11">
@@ -1986,294 +2065,294 @@
         <v>12.2461</v>
       </c>
       <c r="AN11">
-        <v>12.5287</v>
-      </c>
-      <c r="AO11">
+        <v>12.528700000000001</v>
+      </c>
+      <c r="AO11" s="3">
         <v>1.8307</v>
       </c>
       <c r="AP11">
         <v>19.8124</v>
       </c>
       <c r="AQ11">
-        <v>16.8395</v>
+        <v>16.839500000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B12">
-        <v>20.7283</v>
+        <v>20.728300000000001</v>
       </c>
       <c r="C12">
-        <v>12.6255</v>
+        <v>12.625500000000001</v>
       </c>
       <c r="D12">
         <v>10.4146</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>14.0471</v>
       </c>
       <c r="F12">
-        <v>19.1949</v>
+        <v>19.194900000000001</v>
       </c>
       <c r="G12">
-        <v>51.9593</v>
+        <v>51.959299999999999</v>
       </c>
       <c r="H12">
-        <v>28.739</v>
-      </c>
-      <c r="I12">
-        <v>56.7529</v>
+        <v>28.739000000000001</v>
+      </c>
+      <c r="I12" s="3">
+        <v>56.752899999999997</v>
       </c>
       <c r="J12">
         <v>60.3598</v>
       </c>
       <c r="K12">
-        <v>36.5059</v>
+        <v>36.505899999999997</v>
       </c>
       <c r="L12">
-        <v>56.0607</v>
-      </c>
-      <c r="M12">
+        <v>56.060699999999997</v>
+      </c>
+      <c r="M12" s="3">
         <v>31.1081</v>
       </c>
       <c r="N12">
-        <v>26.5966</v>
+        <v>26.596599999999999</v>
       </c>
       <c r="O12">
-        <v>26.5817</v>
+        <v>26.581700000000001</v>
       </c>
       <c r="P12">
         <v>26.7272</v>
       </c>
-      <c r="Q12">
-        <v>25.2171</v>
+      <c r="Q12" s="3">
+        <v>25.217099999999999</v>
       </c>
       <c r="R12">
-        <v>22.8116</v>
+        <v>22.811599999999999</v>
       </c>
       <c r="S12">
-        <v>23.3451</v>
+        <v>23.345099999999999</v>
       </c>
       <c r="T12">
-        <v>24.4098</v>
-      </c>
-      <c r="U12">
-        <v>21.688</v>
+        <v>24.409800000000001</v>
+      </c>
+      <c r="U12" s="3">
+        <v>21.687999999999999</v>
       </c>
       <c r="V12">
         <v>13.795</v>
       </c>
       <c r="W12">
-        <v>11.6924</v>
+        <v>11.692399999999999</v>
       </c>
       <c r="X12">
-        <v>11.6217</v>
-      </c>
-      <c r="Y12">
+        <v>11.621700000000001</v>
+      </c>
+      <c r="Y12" s="3">
         <v>9.48</v>
       </c>
       <c r="Z12">
-        <v>4.213</v>
+        <v>4.2130000000000001</v>
       </c>
       <c r="AA12">
-        <v>4.5927</v>
+        <v>4.5926999999999998</v>
       </c>
       <c r="AB12">
-        <v>4.461</v>
-      </c>
-      <c r="AC12">
-        <v>3.3698</v>
+        <v>4.4610000000000003</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>3.3698000000000001</v>
       </c>
       <c r="AD12">
-        <v>10.4065</v>
+        <v>10.406499999999999</v>
       </c>
       <c r="AE12">
         <v>5.875</v>
       </c>
       <c r="AF12">
-        <v>8.9468</v>
-      </c>
-      <c r="AG12">
+        <v>8.9467999999999996</v>
+      </c>
+      <c r="AG12" s="3">
         <v>1.2319</v>
       </c>
       <c r="AH12">
         <v>-22.2241</v>
       </c>
       <c r="AI12">
-        <v>-39.8151</v>
+        <v>-39.815100000000001</v>
       </c>
       <c r="AJ12">
         <v>-20.0366</v>
       </c>
-      <c r="AK12">
-        <v>-53.1246</v>
+      <c r="AK12" s="3">
+        <v>-53.124600000000001</v>
       </c>
       <c r="AL12">
-        <v>-53.3711</v>
+        <v>-53.371099999999998</v>
       </c>
       <c r="AM12">
-        <v>-62.1504</v>
+        <v>-62.150399999999998</v>
       </c>
       <c r="AN12">
-        <v>-69.4686</v>
-      </c>
-      <c r="AO12">
-        <v>-92.64709999999999</v>
+        <v>-69.468599999999995</v>
+      </c>
+      <c r="AO12" s="3">
+        <v>-92.647099999999995</v>
       </c>
       <c r="AP12">
-        <v>1.6949</v>
+        <v>1.6949000000000001</v>
       </c>
       <c r="AQ12">
-        <v>20.4518</v>
+        <v>20.451799999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B13">
-        <v>0.0689</v>
+        <v>6.8900000000000003E-2</v>
       </c>
       <c r="C13">
-        <v>0.4761</v>
+        <v>0.47610000000000002</v>
       </c>
       <c r="D13">
         <v>0.2671</v>
       </c>
-      <c r="E13">
-        <v>0.7498</v>
+      <c r="E13" s="3">
+        <v>0.74980000000000002</v>
       </c>
       <c r="F13">
-        <v>0.3159</v>
+        <v>0.31590000000000001</v>
       </c>
       <c r="G13">
-        <v>0.8542</v>
+        <v>0.85419999999999996</v>
       </c>
       <c r="H13">
-        <v>0.5397</v>
-      </c>
-      <c r="I13">
+        <v>0.53969999999999996</v>
+      </c>
+      <c r="I13" s="3">
         <v>1.1959</v>
       </c>
       <c r="J13">
-        <v>0.2401</v>
+        <v>0.24010000000000001</v>
       </c>
       <c r="K13">
-        <v>0.7195</v>
+        <v>0.71950000000000003</v>
       </c>
       <c r="L13">
-        <v>0.3254</v>
-      </c>
-      <c r="M13">
+        <v>0.32540000000000002</v>
+      </c>
+      <c r="M13" s="3">
         <v>1.0226</v>
       </c>
       <c r="N13">
-        <v>0.3022</v>
+        <v>0.30220000000000002</v>
       </c>
       <c r="O13">
-        <v>1.0377</v>
+        <v>1.0377000000000001</v>
       </c>
       <c r="P13">
-        <v>0.6926</v>
-      </c>
-      <c r="Q13">
-        <v>1.5025</v>
+        <v>0.69259999999999999</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1.5024999999999999</v>
       </c>
       <c r="R13">
-        <v>0.2957</v>
+        <v>0.29570000000000002</v>
       </c>
       <c r="S13">
-        <v>0.6392</v>
+        <v>0.63919999999999999</v>
       </c>
       <c r="T13">
-        <v>0.3741</v>
-      </c>
-      <c r="U13">
-        <v>1.0096</v>
+        <v>0.37409999999999999</v>
+      </c>
+      <c r="U13" s="3">
+        <v>1.0096000000000001</v>
       </c>
       <c r="V13">
-        <v>0.2935</v>
+        <v>0.29349999999999998</v>
       </c>
       <c r="W13">
         <v>1.0667</v>
       </c>
       <c r="X13">
-        <v>0.6455</v>
-      </c>
-      <c r="Y13">
-        <v>1.3717</v>
+        <v>0.64549999999999996</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>1.3716999999999999</v>
       </c>
       <c r="Z13">
-        <v>0.4106</v>
+        <v>0.41060000000000002</v>
       </c>
       <c r="AA13">
-        <v>1.039</v>
+        <v>1.0389999999999999</v>
       </c>
       <c r="AB13">
-        <v>0.7141999999999999</v>
-      </c>
-      <c r="AC13">
-        <v>1.3936</v>
+        <v>0.71419999999999995</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>1.3935999999999999</v>
       </c>
       <c r="AD13">
-        <v>0.2947</v>
+        <v>0.29470000000000002</v>
       </c>
       <c r="AE13">
-        <v>1.0741</v>
+        <v>1.0741000000000001</v>
       </c>
       <c r="AF13">
-        <v>0.5441</v>
-      </c>
-      <c r="AG13">
-        <v>1.2817</v>
+        <v>0.54410000000000003</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>1.2817000000000001</v>
       </c>
       <c r="AH13">
-        <v>0.4231</v>
+        <v>0.42309999999999998</v>
       </c>
       <c r="AI13">
-        <v>1.2068</v>
+        <v>1.2068000000000001</v>
       </c>
       <c r="AJ13">
-        <v>0.7907999999999999</v>
-      </c>
-      <c r="AK13">
-        <v>1.4404</v>
+        <v>0.79079999999999995</v>
+      </c>
+      <c r="AK13" s="3">
+        <v>1.4403999999999999</v>
       </c>
       <c r="AL13">
-        <v>0.5886</v>
+        <v>0.58860000000000001</v>
       </c>
       <c r="AM13">
-        <v>1.1124</v>
+        <v>1.1124000000000001</v>
       </c>
       <c r="AN13">
         <v>1.0465</v>
       </c>
-      <c r="AO13">
-        <v>1.3139</v>
+      <c r="AO13" s="3">
+        <v>1.3139000000000001</v>
       </c>
       <c r="AP13">
         <v>0.1142</v>
       </c>
       <c r="AQ13">
-        <v>0.2844</v>
+        <v>0.28439999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B14">
-        <v>362545586.89</v>
+        <v>362545586.88999999</v>
       </c>
       <c r="C14">
-        <v>1077149060.94</v>
+        <v>1077149060.9400001</v>
       </c>
       <c r="D14">
-        <v>718436591.59</v>
-      </c>
-      <c r="E14">
+        <v>718436591.59000003</v>
+      </c>
+      <c r="E14" s="3">
         <v>1474884526.25</v>
       </c>
       <c r="F14">
@@ -2283,115 +2362,115 @@
         <v>1345545388.73</v>
       </c>
       <c r="H14">
-        <v>849086642.86</v>
-      </c>
-      <c r="I14">
-        <v>1828881533.32</v>
+        <v>849086642.86000001</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1828881533.3199999</v>
       </c>
       <c r="J14">
-        <v>527905285.73</v>
+        <v>527905285.73000002</v>
       </c>
       <c r="K14">
-        <v>1624347094.39</v>
+        <v>1624347094.3900001</v>
       </c>
       <c r="L14">
         <v>1061568217.04</v>
       </c>
-      <c r="M14">
-        <v>2327483505.65</v>
+      <c r="M14" s="3">
+        <v>2327483505.6500001</v>
       </c>
       <c r="N14">
-        <v>650917020.39</v>
+        <v>650917020.38999999</v>
       </c>
       <c r="O14">
         <v>1983045832.54</v>
       </c>
       <c r="P14">
-        <v>1303758655.12</v>
-      </c>
-      <c r="Q14">
-        <v>2882644604.34</v>
+        <v>1303758655.1199999</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>2882644604.3400002</v>
       </c>
       <c r="R14">
-        <v>783030516.96</v>
+        <v>783030516.96000004</v>
       </c>
       <c r="S14">
-        <v>2567661529.78</v>
+        <v>2567661529.7800002</v>
       </c>
       <c r="T14">
         <v>1657984093.26</v>
       </c>
-      <c r="U14">
-        <v>3477692868.18</v>
+      <c r="U14" s="3">
+        <v>3477692868.1799998</v>
       </c>
       <c r="V14">
-        <v>915155089.29</v>
+        <v>915155089.28999996</v>
       </c>
       <c r="W14">
-        <v>2829291422.86</v>
+        <v>2829291422.8600001</v>
       </c>
       <c r="X14">
         <v>1891775190.98</v>
       </c>
-      <c r="Y14">
-        <v>3833490223.7</v>
+      <c r="Y14" s="3">
+        <v>3833490223.6999998</v>
       </c>
       <c r="Z14">
-        <v>972205193.78</v>
+        <v>972205193.77999997</v>
       </c>
       <c r="AA14">
         <v>3102071225.79</v>
       </c>
       <c r="AB14">
-        <v>2034677586.17</v>
-      </c>
-      <c r="AC14">
+        <v>2034677586.1700001</v>
+      </c>
+      <c r="AC14" s="3">
         <v>4153776609.23</v>
       </c>
       <c r="AD14">
         <v>1126387674.46</v>
       </c>
       <c r="AE14">
-        <v>3535107785.14</v>
+        <v>3535107785.1399999</v>
       </c>
       <c r="AF14">
-        <v>2267101403.84</v>
-      </c>
-      <c r="AG14">
+        <v>2267101403.8400002</v>
+      </c>
+      <c r="AG14" s="3">
         <v>4651876199.04</v>
       </c>
       <c r="AH14">
-        <v>1188508461.69</v>
+        <v>1188508461.6900001</v>
       </c>
       <c r="AI14">
-        <v>3564176112.94</v>
+        <v>3564176112.9400001</v>
       </c>
       <c r="AJ14">
-        <v>2356019212.13</v>
-      </c>
-      <c r="AK14">
-        <v>4470465980.59</v>
+        <v>2356019212.1300001</v>
+      </c>
+      <c r="AK14" s="3">
+        <v>4470465980.5900002</v>
       </c>
       <c r="AL14">
-        <v>866043391.46</v>
+        <v>866043391.46000004</v>
       </c>
       <c r="AM14">
-        <v>2134213549.56</v>
+        <v>2134213549.5599999</v>
       </c>
       <c r="AN14">
-        <v>1535785798.93</v>
-      </c>
-      <c r="AO14">
-        <v>2738562296.09</v>
+        <v>1535785798.9300001</v>
+      </c>
+      <c r="AO14" s="3">
+        <v>2738562296.0900002</v>
       </c>
       <c r="AP14">
-        <v>765931082.28</v>
+        <v>765931082.27999997</v>
       </c>
       <c r="AQ14">
-        <v>1376323994.58</v>
+        <v>1376323994.5799999</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
@@ -2402,82 +2481,82 @@
         <v>11.5116</v>
       </c>
       <c r="D15">
-        <v>9.454499999999999</v>
-      </c>
-      <c r="E15">
+        <v>9.4544999999999995</v>
+      </c>
+      <c r="E15" s="3">
         <v>13.6479</v>
       </c>
       <c r="F15">
-        <v>14.4548</v>
+        <v>14.454800000000001</v>
       </c>
       <c r="G15">
-        <v>24.9173</v>
+        <v>24.917300000000001</v>
       </c>
       <c r="H15">
-        <v>18.1853</v>
-      </c>
-      <c r="I15">
+        <v>18.185300000000002</v>
+      </c>
+      <c r="I15" s="3">
         <v>24.0017</v>
       </c>
       <c r="J15">
         <v>27.2211</v>
       </c>
       <c r="K15">
-        <v>20.7203</v>
+        <v>20.720300000000002</v>
       </c>
       <c r="L15">
-        <v>25.0247</v>
-      </c>
-      <c r="M15">
-        <v>27.2627</v>
+        <v>25.024699999999999</v>
+      </c>
+      <c r="M15" s="3">
+        <v>27.262699999999999</v>
       </c>
       <c r="N15">
         <v>23.3019</v>
       </c>
       <c r="O15">
-        <v>22.0826</v>
+        <v>22.082599999999999</v>
       </c>
       <c r="P15">
-        <v>22.8144</v>
-      </c>
-      <c r="Q15">
-        <v>23.8524</v>
+        <v>22.814399999999999</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>23.852399999999999</v>
       </c>
       <c r="R15">
-        <v>20.2965</v>
+        <v>20.296500000000002</v>
       </c>
       <c r="S15">
-        <v>29.4807</v>
+        <v>29.480699999999999</v>
       </c>
       <c r="T15">
-        <v>27.1696</v>
-      </c>
-      <c r="U15">
-        <v>20.6424</v>
+        <v>27.169599999999999</v>
+      </c>
+      <c r="U15" s="3">
+        <v>20.642399999999999</v>
       </c>
       <c r="V15">
         <v>16.8735</v>
       </c>
       <c r="W15">
-        <v>10.1894</v>
+        <v>10.189399999999999</v>
       </c>
       <c r="X15">
-        <v>14.1009</v>
-      </c>
-      <c r="Y15">
+        <v>14.100899999999999</v>
+      </c>
+      <c r="Y15" s="3">
         <v>10.2308</v>
       </c>
       <c r="Z15">
-        <v>6.2339</v>
+        <v>6.2339000000000002</v>
       </c>
       <c r="AA15">
-        <v>9.641299999999999</v>
+        <v>9.6412999999999993</v>
       </c>
       <c r="AB15">
-        <v>7.5539</v>
-      </c>
-      <c r="AC15">
-        <v>8.355</v>
+        <v>7.5538999999999996</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>8.3550000000000004</v>
       </c>
       <c r="AD15">
         <v>15.859</v>
@@ -2488,308 +2567,308 @@
       <c r="AF15">
         <v>11.4231</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" s="3">
         <v>11.9915</v>
       </c>
       <c r="AH15">
-        <v>5.515</v>
+        <v>5.5149999999999997</v>
       </c>
       <c r="AI15">
-        <v>0.8223</v>
+        <v>0.82230000000000003</v>
       </c>
       <c r="AJ15">
-        <v>3.9221</v>
-      </c>
-      <c r="AK15">
-        <v>-3.8997</v>
+        <v>3.9220999999999999</v>
+      </c>
+      <c r="AK15" s="3">
+        <v>-3.8997000000000002</v>
       </c>
       <c r="AL15">
-        <v>-27.1319</v>
+        <v>-27.131900000000002</v>
       </c>
       <c r="AM15">
-        <v>-40.1204</v>
+        <v>-40.120399999999997</v>
       </c>
       <c r="AN15">
-        <v>-34.8144</v>
-      </c>
-      <c r="AO15">
+        <v>-34.814399999999999</v>
+      </c>
+      <c r="AO15" s="3">
         <v>-38.741</v>
       </c>
       <c r="AP15">
-        <v>-11.5597</v>
+        <v>-11.559699999999999</v>
       </c>
       <c r="AQ15">
-        <v>-10.3831</v>
+        <v>-10.383100000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B16">
-        <v>7.1972</v>
+        <v>7.1971999999999996</v>
       </c>
       <c r="C16">
-        <v>5.8069</v>
+        <v>5.8068999999999997</v>
       </c>
       <c r="D16">
-        <v>6.3497</v>
-      </c>
-      <c r="E16">
-        <v>4.1271</v>
+        <v>6.3497000000000003</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.1271000000000004</v>
       </c>
       <c r="F16">
-        <v>4.4373</v>
+        <v>4.4372999999999996</v>
       </c>
       <c r="G16">
-        <v>4.5537</v>
+        <v>4.5537000000000001</v>
       </c>
       <c r="H16">
-        <v>5.2986</v>
-      </c>
-      <c r="I16">
-        <v>6.4105</v>
+        <v>5.2986000000000004</v>
+      </c>
+      <c r="I16" s="3">
+        <v>6.4104999999999999</v>
       </c>
       <c r="J16">
-        <v>8.170199999999999</v>
+        <v>8.1701999999999995</v>
       </c>
       <c r="K16">
-        <v>7.8229</v>
+        <v>7.8228999999999997</v>
       </c>
       <c r="L16">
-        <v>7.0289</v>
-      </c>
-      <c r="M16">
-        <v>7.1866</v>
+        <v>7.0289000000000001</v>
+      </c>
+      <c r="M16" s="3">
+        <v>7.1866000000000003</v>
       </c>
       <c r="N16">
-        <v>5.6421</v>
+        <v>5.6421000000000001</v>
       </c>
       <c r="O16">
-        <v>5.834</v>
+        <v>5.8339999999999996</v>
       </c>
       <c r="P16">
-        <v>6.0232</v>
-      </c>
-      <c r="Q16">
-        <v>6.0835</v>
+        <v>6.0232000000000001</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>6.0834999999999999</v>
       </c>
       <c r="R16">
-        <v>7.1313</v>
+        <v>7.1313000000000004</v>
       </c>
       <c r="S16">
-        <v>6.1949</v>
+        <v>6.1948999999999996</v>
       </c>
       <c r="T16">
-        <v>6.8997</v>
-      </c>
-      <c r="U16">
-        <v>6.9172</v>
+        <v>6.8997000000000002</v>
+      </c>
+      <c r="U16" s="3">
+        <v>6.9172000000000002</v>
       </c>
       <c r="V16">
-        <v>6.0076</v>
+        <v>6.0076000000000001</v>
       </c>
       <c r="W16">
         <v>5.806</v>
       </c>
       <c r="X16">
-        <v>6.1106</v>
-      </c>
-      <c r="Y16">
-        <v>5.7059</v>
+        <v>6.1105999999999998</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>5.7058999999999997</v>
       </c>
       <c r="Z16">
-        <v>5.2063</v>
+        <v>5.2062999999999997</v>
       </c>
       <c r="AA16">
-        <v>5.6559</v>
+        <v>5.6558999999999999</v>
       </c>
       <c r="AB16">
         <v>6.9657</v>
       </c>
-      <c r="AC16">
-        <v>7.8093</v>
+      <c r="AC16" s="3">
+        <v>7.8093000000000004</v>
       </c>
       <c r="AD16">
-        <v>7.0058</v>
+        <v>7.0057999999999998</v>
       </c>
       <c r="AE16">
-        <v>4.6402</v>
+        <v>4.6402000000000001</v>
       </c>
       <c r="AF16">
-        <v>6.4755</v>
-      </c>
-      <c r="AG16">
+        <v>6.4755000000000003</v>
+      </c>
+      <c r="AG16" s="3">
         <v>3.2805</v>
       </c>
       <c r="AH16">
-        <v>4.0732</v>
+        <v>4.0731999999999999</v>
       </c>
       <c r="AI16">
-        <v>3.0976</v>
+        <v>3.0975999999999999</v>
       </c>
       <c r="AJ16">
-        <v>3.6255</v>
-      </c>
-      <c r="AK16">
-        <v>3.2141</v>
+        <v>3.6255000000000002</v>
+      </c>
+      <c r="AK16" s="3">
+        <v>3.2141000000000002</v>
       </c>
       <c r="AL16">
-        <v>2.8518</v>
+        <v>2.8517999999999999</v>
       </c>
       <c r="AM16">
-        <v>6.2757</v>
+        <v>6.2756999999999996</v>
       </c>
       <c r="AN16">
-        <v>5.0147</v>
-      </c>
-      <c r="AO16">
+        <v>5.0147000000000004</v>
+      </c>
+      <c r="AO16" s="3">
         <v>5.3228</v>
       </c>
       <c r="AP16">
-        <v>6.9575</v>
+        <v>6.9574999999999996</v>
       </c>
       <c r="AQ16">
-        <v>4.5123</v>
+        <v>4.5122999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B17">
-        <v>133.9343</v>
+        <v>133.93430000000001</v>
       </c>
       <c r="C17">
-        <v>40.7938</v>
+        <v>40.793799999999997</v>
       </c>
       <c r="D17">
-        <v>62.2844</v>
-      </c>
-      <c r="E17">
+        <v>62.284399999999998</v>
+      </c>
+      <c r="E17" s="3">
         <v>21.7056</v>
       </c>
       <c r="F17">
-        <v>79.51009999999999</v>
+        <v>79.510099999999994</v>
       </c>
       <c r="G17">
-        <v>26.7675</v>
+        <v>26.767499999999998</v>
       </c>
       <c r="H17">
-        <v>46.6724</v>
-      </c>
-      <c r="I17">
+        <v>46.672400000000003</v>
+      </c>
+      <c r="I17" s="3">
         <v>26.2653</v>
       </c>
       <c r="J17">
         <v>113.411</v>
       </c>
       <c r="K17">
-        <v>38.0722</v>
+        <v>38.072200000000002</v>
       </c>
       <c r="L17">
-        <v>48.0811</v>
-      </c>
-      <c r="M17">
-        <v>26.9889</v>
+        <v>48.081099999999999</v>
+      </c>
+      <c r="M17" s="3">
+        <v>26.988900000000001</v>
       </c>
       <c r="N17">
-        <v>74.604</v>
+        <v>74.603999999999999</v>
       </c>
       <c r="O17">
         <v>27.0625</v>
       </c>
       <c r="P17">
-        <v>39.0404</v>
-      </c>
-      <c r="Q17">
-        <v>22.0363</v>
+        <v>39.040399999999998</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>22.036300000000001</v>
       </c>
       <c r="R17">
-        <v>92.9062</v>
+        <v>92.906199999999998</v>
       </c>
       <c r="S17">
-        <v>28.3829</v>
+        <v>28.382899999999999</v>
       </c>
       <c r="T17">
-        <v>43.8375</v>
-      </c>
-      <c r="U17">
-        <v>25.0041</v>
+        <v>43.837499999999999</v>
+      </c>
+      <c r="U17" s="3">
+        <v>25.004100000000001</v>
       </c>
       <c r="V17">
-        <v>83.0945</v>
+        <v>83.094499999999996</v>
       </c>
       <c r="W17">
-        <v>28.0262</v>
+        <v>28.026199999999999</v>
       </c>
       <c r="X17">
-        <v>41.0814</v>
-      </c>
-      <c r="Y17">
+        <v>41.081400000000002</v>
+      </c>
+      <c r="Y17" s="3">
         <v>22.0032</v>
       </c>
       <c r="Z17">
-        <v>80.12909999999999</v>
+        <v>80.129099999999994</v>
       </c>
       <c r="AA17">
-        <v>29.8359</v>
+        <v>29.835899999999999</v>
       </c>
       <c r="AB17">
-        <v>51.5616</v>
-      </c>
-      <c r="AC17">
-        <v>32.8966</v>
+        <v>51.561599999999999</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>32.896599999999999</v>
       </c>
       <c r="AD17">
-        <v>110.0661</v>
+        <v>110.06610000000001</v>
       </c>
       <c r="AE17">
-        <v>25.7635</v>
+        <v>25.763500000000001</v>
       </c>
       <c r="AF17">
-        <v>49.3298</v>
-      </c>
-      <c r="AG17">
+        <v>49.329799999999999</v>
+      </c>
+      <c r="AG17" s="3">
         <v>15.0223</v>
       </c>
       <c r="AH17">
-        <v>88.8853</v>
+        <v>88.885300000000001</v>
       </c>
       <c r="AI17">
-        <v>29.3592</v>
+        <v>29.359200000000001</v>
       </c>
       <c r="AJ17">
-        <v>37.1452</v>
-      </c>
-      <c r="AK17">
-        <v>30.5922</v>
+        <v>37.145200000000003</v>
+      </c>
+      <c r="AK17" s="3">
+        <v>30.592199999999998</v>
       </c>
       <c r="AL17">
         <v>124.3167</v>
       </c>
       <c r="AM17">
-        <v>138.9756</v>
+        <v>138.97559999999999</v>
       </c>
       <c r="AN17">
-        <v>149.4834</v>
-      </c>
-      <c r="AO17">
-        <v>585.1775</v>
+        <v>149.48339999999999</v>
+      </c>
+      <c r="AO17" s="3">
+        <v>585.17750000000001</v>
       </c>
       <c r="AP17">
-        <v>259.7519</v>
+        <v>259.75189999999998</v>
       </c>
       <c r="AQ17">
-        <v>157.0467</v>
+        <v>157.04669999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B18">
-        <v>29.1682</v>
+        <v>29.168199999999999</v>
       </c>
       <c r="C18">
         <v>26.5901</v>
@@ -2797,103 +2876,103 @@
       <c r="D18">
         <v>27.2624</v>
       </c>
-      <c r="E18">
-        <v>27.4902</v>
+      <c r="E18" s="3">
+        <v>27.490200000000002</v>
       </c>
       <c r="F18">
-        <v>30.3762</v>
+        <v>30.376200000000001</v>
       </c>
       <c r="G18">
-        <v>32.3463</v>
+        <v>32.346299999999999</v>
       </c>
       <c r="H18">
-        <v>29.6969</v>
-      </c>
-      <c r="I18">
-        <v>34.7509</v>
+        <v>29.696899999999999</v>
+      </c>
+      <c r="I18" s="3">
+        <v>34.750900000000001</v>
       </c>
       <c r="J18">
-        <v>38.2886</v>
+        <v>38.288600000000002</v>
       </c>
       <c r="K18">
-        <v>36.5759</v>
+        <v>36.575899999999997</v>
       </c>
       <c r="L18">
-        <v>37.0688</v>
-      </c>
-      <c r="M18">
-        <v>35.8009</v>
+        <v>37.068800000000003</v>
+      </c>
+      <c r="M18" s="3">
+        <v>35.800899999999999</v>
       </c>
       <c r="N18">
-        <v>39.3117</v>
+        <v>39.311700000000002</v>
       </c>
       <c r="O18">
-        <v>37.9239</v>
+        <v>37.923900000000003</v>
       </c>
       <c r="P18">
         <v>38.2498</v>
       </c>
-      <c r="Q18">
-        <v>36.1954</v>
+      <c r="Q18" s="3">
+        <v>36.195399999999999</v>
       </c>
       <c r="R18">
-        <v>40.1336</v>
+        <v>40.133600000000001</v>
       </c>
       <c r="S18">
-        <v>36.1268</v>
+        <v>36.126800000000003</v>
       </c>
       <c r="T18">
-        <v>37.4197</v>
-      </c>
-      <c r="U18">
-        <v>36.5091</v>
+        <v>37.419699999999999</v>
+      </c>
+      <c r="U18" s="3">
+        <v>36.509099999999997</v>
       </c>
       <c r="V18">
-        <v>39.0765</v>
+        <v>39.076500000000003</v>
       </c>
       <c r="W18">
-        <v>36.6196</v>
+        <v>36.619599999999998</v>
       </c>
       <c r="X18">
-        <v>36.6067</v>
-      </c>
-      <c r="Y18">
-        <v>36.2604</v>
+        <v>36.606699999999996</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>36.260399999999997</v>
       </c>
       <c r="Z18">
-        <v>38.3331</v>
+        <v>38.333100000000002</v>
       </c>
       <c r="AA18">
-        <v>34.9334</v>
+        <v>34.933399999999999</v>
       </c>
       <c r="AB18">
-        <v>35.554</v>
-      </c>
-      <c r="AC18">
-        <v>34.5921</v>
+        <v>35.554000000000002</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>34.592100000000002</v>
       </c>
       <c r="AD18">
         <v>36.5291</v>
       </c>
       <c r="AE18">
-        <v>32.4551</v>
+        <v>32.455100000000002</v>
       </c>
       <c r="AF18">
-        <v>34.7638</v>
-      </c>
-      <c r="AG18">
-        <v>31.2687</v>
+        <v>34.763800000000003</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>31.268699999999999</v>
       </c>
       <c r="AH18">
-        <v>26.9259</v>
+        <v>26.925899999999999</v>
       </c>
       <c r="AI18">
-        <v>19.3738</v>
+        <v>19.373799999999999</v>
       </c>
       <c r="AJ18">
-        <v>26.7492</v>
-      </c>
-      <c r="AK18">
+        <v>26.749199999999998</v>
+      </c>
+      <c r="AK18" s="3">
         <v>15.2521</v>
       </c>
       <c r="AL18">
@@ -2903,150 +2982,150 @@
         <v>12.2461</v>
       </c>
       <c r="AN18">
-        <v>12.5287</v>
-      </c>
-      <c r="AO18">
+        <v>12.528700000000001</v>
+      </c>
+      <c r="AO18" s="3">
         <v>1.8307</v>
       </c>
       <c r="AP18">
         <v>19.8124</v>
       </c>
       <c r="AQ18">
-        <v>16.8395</v>
+        <v>16.839500000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B19">
-        <v>2.9292</v>
+        <v>2.9291999999999998</v>
       </c>
       <c r="C19">
-        <v>1.9528</v>
+        <v>1.9528000000000001</v>
       </c>
       <c r="D19">
         <v>1.7037</v>
       </c>
-      <c r="E19">
-        <v>2.1706</v>
+      <c r="E19" s="3">
+        <v>2.1705999999999999</v>
       </c>
       <c r="F19">
-        <v>2.5175</v>
+        <v>2.5175000000000001</v>
       </c>
       <c r="G19">
-        <v>2.4319</v>
+        <v>2.4319000000000002</v>
       </c>
       <c r="H19">
         <v>2.0122</v>
       </c>
-      <c r="I19">
-        <v>2.748</v>
+      <c r="I19" s="3">
+        <v>2.7480000000000002</v>
       </c>
       <c r="J19">
         <v>3.2113</v>
       </c>
       <c r="K19">
-        <v>2.2718</v>
+        <v>2.2717999999999998</v>
       </c>
       <c r="L19">
-        <v>1.9662</v>
-      </c>
-      <c r="M19">
-        <v>2.5146</v>
+        <v>1.9661999999999999</v>
+      </c>
+      <c r="M19" s="3">
+        <v>2.5146000000000002</v>
       </c>
       <c r="N19">
         <v>2.9034</v>
       </c>
       <c r="O19">
-        <v>3.0639</v>
+        <v>3.0638999999999998</v>
       </c>
       <c r="P19">
-        <v>2.6721</v>
-      </c>
-      <c r="Q19">
-        <v>3.4027</v>
+        <v>2.6720999999999999</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>3.4026999999999998</v>
       </c>
       <c r="R19">
-        <v>3.8824</v>
+        <v>3.8824000000000001</v>
       </c>
       <c r="S19">
-        <v>2.5742</v>
+        <v>2.5741999999999998</v>
       </c>
       <c r="T19">
-        <v>2.281</v>
-      </c>
-      <c r="U19">
-        <v>2.815</v>
+        <v>2.2810000000000001</v>
+      </c>
+      <c r="U19" s="3">
+        <v>2.8149999999999999</v>
       </c>
       <c r="V19">
         <v>3.157</v>
       </c>
       <c r="W19">
-        <v>3.2088</v>
+        <v>3.2088000000000001</v>
       </c>
       <c r="X19">
         <v>2.8788</v>
       </c>
-      <c r="Y19">
-        <v>3.4467</v>
+      <c r="Y19" s="3">
+        <v>3.4466999999999999</v>
       </c>
       <c r="Z19">
         <v>3.8066</v>
       </c>
       <c r="AA19">
-        <v>3.7926</v>
+        <v>3.7926000000000002</v>
       </c>
       <c r="AB19">
-        <v>3.445</v>
-      </c>
-      <c r="AC19">
-        <v>4.1347</v>
+        <v>3.4449999999999998</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>4.1346999999999996</v>
       </c>
       <c r="AD19">
-        <v>4.5318</v>
+        <v>4.5317999999999996</v>
       </c>
       <c r="AE19">
-        <v>4.4341</v>
+        <v>4.4340999999999999</v>
       </c>
       <c r="AF19">
-        <v>4.0897</v>
-      </c>
-      <c r="AG19">
-        <v>4.7288</v>
+        <v>4.0896999999999997</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>4.7287999999999997</v>
       </c>
       <c r="AH19">
         <v>5.0362</v>
       </c>
       <c r="AI19">
-        <v>4.6142</v>
+        <v>4.6142000000000003</v>
       </c>
       <c r="AJ19">
-        <v>4.5335</v>
-      </c>
-      <c r="AK19">
-        <v>4.6099</v>
+        <v>4.5335000000000001</v>
+      </c>
+      <c r="AK19" s="3">
+        <v>4.6098999999999997</v>
       </c>
       <c r="AL19">
-        <v>4.7534</v>
+        <v>4.7534000000000001</v>
       </c>
       <c r="AM19">
-        <v>4.3724</v>
+        <v>4.3723999999999998</v>
       </c>
       <c r="AN19">
-        <v>4.3047</v>
-      </c>
-      <c r="AO19">
-        <v>4.1164</v>
+        <v>4.3047000000000004</v>
+      </c>
+      <c r="AO19" s="3">
+        <v>4.1163999999999996</v>
       </c>
       <c r="AP19">
-        <v>4.2639</v>
+        <v>4.2638999999999996</v>
       </c>
       <c r="AQ19">
-        <v>4.0708</v>
+        <v>4.0708000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
@@ -3057,21 +3136,21 @@
         <v>14.82</v>
       </c>
       <c r="D20">
-        <v>10.22</v>
-      </c>
-      <c r="E20">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="E20" s="3">
         <v>20.52</v>
       </c>
       <c r="F20">
         <v>5.74</v>
       </c>
       <c r="G20">
-        <v>19.26</v>
+        <v>19.260000000000002</v>
       </c>
       <c r="H20">
         <v>11.44</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>27.13</v>
       </c>
       <c r="J20">
@@ -3083,7 +3162,7 @@
       <c r="L20">
         <v>14.56</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="3">
         <v>29.49</v>
       </c>
       <c r="N20">
@@ -3095,7 +3174,7 @@
       <c r="P20">
         <v>15.26</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="3">
         <v>30.75</v>
       </c>
       <c r="R20">
@@ -3107,7 +3186,7 @@
       <c r="T20">
         <v>15.73</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="3">
         <v>30.82</v>
       </c>
       <c r="V20">
@@ -3119,7 +3198,7 @@
       <c r="X20">
         <v>14.69</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="3">
         <v>28.68</v>
       </c>
       <c r="Z20">
@@ -3131,7 +3210,7 @@
       <c r="AB20">
         <v>13.33</v>
       </c>
-      <c r="AC20">
+      <c r="AC20" s="3">
         <v>25.94</v>
       </c>
       <c r="AD20">
@@ -3143,7 +3222,7 @@
       <c r="AF20">
         <v>12.8</v>
       </c>
-      <c r="AG20">
+      <c r="AG20" s="3">
         <v>23.43</v>
       </c>
       <c r="AH20">
@@ -3155,7 +3234,7 @@
       <c r="AJ20">
         <v>9.44</v>
       </c>
-      <c r="AK20">
+      <c r="AK20" s="3">
         <v>11.07</v>
       </c>
       <c r="AL20">
@@ -3167,7 +3246,7 @@
       <c r="AN20">
         <v>3.06</v>
       </c>
-      <c r="AO20">
+      <c r="AO20" s="3">
         <v>1.03</v>
       </c>
       <c r="AP20">
@@ -3178,6 +3257,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>